--- a/Display_Bookshelves/ExcelFiles/StudyChairsDetails.xlsx
+++ b/Display_Bookshelves/ExcelFiles/StudyChairsDetails.xlsx
@@ -23,6 +23,138 @@
     <t>Price (Rs)</t>
   </si>
   <si>
+    <t>Edmund Study Chair</t>
+  </si>
+  <si>
+    <t>(Black, Beta Chair Base)</t>
+  </si>
+  <si>
+    <t>₹10,999 ₹8,249</t>
+  </si>
+  <si>
+    <t>Mika Study Chair</t>
+  </si>
+  <si>
+    <t>(Scarlet Red)</t>
+  </si>
+  <si>
+    <t>₹13,599 ₹11,559</t>
+  </si>
+  <si>
+    <t>Aurelio Study Chair</t>
+  </si>
+  <si>
+    <t>(Teak Finish, Sandstorm)</t>
+  </si>
+  <si>
+    <t>₹8,599</t>
+  </si>
+  <si>
+    <t>Charles Study Chair - 2 Axis Adjustable</t>
+  </si>
+  <si>
+    <t>(Black)</t>
+  </si>
+  <si>
+    <t>₹12,099 ₹8,469</t>
+  </si>
+  <si>
+    <t>Werner High Back Study Chair</t>
+  </si>
+  <si>
+    <t>₹11,499 ₹8,624</t>
+  </si>
+  <si>
+    <t>Dewey High Back Study Chair</t>
+  </si>
+  <si>
+    <t>₹16,999 ₹13,599</t>
+  </si>
+  <si>
+    <t>Venturi Study Chair-3 Axis Adjustable</t>
+  </si>
+  <si>
+    <t>(Aqua)</t>
+  </si>
+  <si>
+    <t>₹10,999 ₹9,349</t>
+  </si>
+  <si>
+    <t>(Carbon Black)</t>
+  </si>
+  <si>
+    <t>(Ash Grey)</t>
+  </si>
+  <si>
+    <t>₹10,999 ₹8,799</t>
+  </si>
+  <si>
+    <t>Dorothy Accent Chair</t>
+  </si>
+  <si>
+    <t>(Grey)</t>
+  </si>
+  <si>
+    <t>₹11,099</t>
+  </si>
+  <si>
+    <t>(White)</t>
+  </si>
+  <si>
+    <t>₹13,599 ₹10,879</t>
+  </si>
+  <si>
+    <t>DSW Side Chair Replica</t>
+  </si>
+  <si>
+    <t>(Patchwork)</t>
+  </si>
+  <si>
+    <t>₹9,799</t>
+  </si>
+  <si>
+    <t>Arabia Study Table</t>
+  </si>
+  <si>
+    <t>(Teak Finish)</t>
+  </si>
+  <si>
+    <t>₹10,999</t>
+  </si>
+  <si>
+    <t>Poulain Accent Chair</t>
+  </si>
+  <si>
+    <t>(Red, Fabric Seat)</t>
+  </si>
+  <si>
+    <t>(Two Tone, Fabric Seat)</t>
+  </si>
+  <si>
+    <t>Dorsey Study Chair</t>
+  </si>
+  <si>
+    <t>₹5,499 ₹4,124</t>
+  </si>
+  <si>
+    <t>Galen Study Chair</t>
+  </si>
+  <si>
+    <t>(Black, Nylon Chair Base)</t>
+  </si>
+  <si>
+    <t>₹10,999 ₹7,699</t>
+  </si>
+  <si>
+    <t>Barry Study Chair</t>
+  </si>
+  <si>
+    <t>(Black Leatherette)</t>
+  </si>
+  <si>
+    <t>₹6,499 ₹4,874</t>
+  </si>
+  <si>
     <t>Jean Study Chair</t>
   </si>
   <si>
@@ -32,154 +164,22 @@
     <t>₹10,699 ₹7,489</t>
   </si>
   <si>
-    <t>Aurelio Study Chair</t>
+    <t>Cohen Study Chair</t>
+  </si>
+  <si>
+    <t>₹8,499 ₹6,374</t>
+  </si>
+  <si>
+    <t>Hawley Study Chair</t>
+  </si>
+  <si>
+    <t>₹6,999 ₹5,949</t>
   </si>
   <si>
     <t>(Mahogany Finish, Olive)</t>
   </si>
   <si>
     <t>₹8,599 ₹7,309</t>
-  </si>
-  <si>
-    <t>Edmund Study Chair</t>
-  </si>
-  <si>
-    <t>(Black, Beta Chair Base)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹8,249</t>
-  </si>
-  <si>
-    <t>Venturi Study Chair-3 Axis Adjustable</t>
-  </si>
-  <si>
-    <t>(Aqua)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹9,349</t>
-  </si>
-  <si>
-    <t>Werner High Back Study Chair</t>
-  </si>
-  <si>
-    <t>(Black)</t>
-  </si>
-  <si>
-    <t>₹11,499 ₹8,624</t>
-  </si>
-  <si>
-    <t>Charles Study Chair - 2 Axis Adjustable</t>
-  </si>
-  <si>
-    <t>₹12,099 ₹8,469</t>
-  </si>
-  <si>
-    <t>Dewey High Back Study Chair</t>
-  </si>
-  <si>
-    <t>₹16,999 ₹13,599</t>
-  </si>
-  <si>
-    <t>(Ash Grey)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹8,799</t>
-  </si>
-  <si>
-    <t>(Carbon Black)</t>
-  </si>
-  <si>
-    <t>Dorothy Accent Chair</t>
-  </si>
-  <si>
-    <t>(Grey)</t>
-  </si>
-  <si>
-    <t>₹11,099</t>
-  </si>
-  <si>
-    <t>Mika Study Chair</t>
-  </si>
-  <si>
-    <t>(White)</t>
-  </si>
-  <si>
-    <t>₹13,599 ₹10,879</t>
-  </si>
-  <si>
-    <t>DSW Side Chair Replica</t>
-  </si>
-  <si>
-    <t>(Patchwork)</t>
-  </si>
-  <si>
-    <t>₹9,799</t>
-  </si>
-  <si>
-    <t>Arabia Study Table</t>
-  </si>
-  <si>
-    <t>(Teak Finish)</t>
-  </si>
-  <si>
-    <t>₹10,999</t>
-  </si>
-  <si>
-    <t>Poulain Accent Chair</t>
-  </si>
-  <si>
-    <t>(Red, Fabric Seat)</t>
-  </si>
-  <si>
-    <t>(Two Tone, Fabric Seat)</t>
-  </si>
-  <si>
-    <t>Dorsey Study Chair</t>
-  </si>
-  <si>
-    <t>₹5,499 ₹4,124</t>
-  </si>
-  <si>
-    <t>Hawley Study Chair</t>
-  </si>
-  <si>
-    <t>₹6,999 ₹5,949</t>
-  </si>
-  <si>
-    <t>(Scarlet Red)</t>
-  </si>
-  <si>
-    <t>₹13,599 ₹11,559</t>
-  </si>
-  <si>
-    <t>Galen Study Chair</t>
-  </si>
-  <si>
-    <t>(Black, Nylon Chair Base)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹7,699</t>
-  </si>
-  <si>
-    <t>(Teak Finish, Sandstorm)</t>
-  </si>
-  <si>
-    <t>₹8,599</t>
-  </si>
-  <si>
-    <t>Cohen Study Chair</t>
-  </si>
-  <si>
-    <t>₹8,499 ₹6,374</t>
-  </si>
-  <si>
-    <t>Barry Study Chair</t>
-  </si>
-  <si>
-    <t>(Black Leatherette)</t>
-  </si>
-  <si>
-    <t>₹6,499 ₹4,874</t>
   </si>
 </sst>
 </file>
@@ -290,29 +290,29 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -320,24 +320,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -353,76 +353,76 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>43</v>
@@ -430,51 +430,51 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>

--- a/Display_Bookshelves/ExcelFiles/StudyChairsDetails.xlsx
+++ b/Display_Bookshelves/ExcelFiles/StudyChairsDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -23,127 +23,127 @@
     <t>Price (Rs)</t>
   </si>
   <si>
+    <t>Aurelio Study Chair</t>
+  </si>
+  <si>
+    <t>(Teak Finish, Sandstorm)</t>
+  </si>
+  <si>
+    <t>₹8,599</t>
+  </si>
+  <si>
+    <t>(Mahogany Finish, Olive)</t>
+  </si>
+  <si>
+    <t>Werner High Back Study Chair</t>
+  </si>
+  <si>
+    <t>(Black)</t>
+  </si>
+  <si>
+    <t>₹11,499</t>
+  </si>
+  <si>
     <t>Edmund Study Chair</t>
   </si>
   <si>
     <t>(Black, Beta Chair Base)</t>
   </si>
   <si>
-    <t>₹10,999 ₹8,249</t>
+    <t>₹10,999</t>
+  </si>
+  <si>
+    <t>Charles Study Chair - 2 Axis Adjustable</t>
+  </si>
+  <si>
+    <t>₹12,099</t>
+  </si>
+  <si>
+    <t>Venturi Study Chair-3 Axis Adjustable</t>
+  </si>
+  <si>
+    <t>(Aqua)</t>
+  </si>
+  <si>
+    <t>Dewey High Back Study Chair</t>
+  </si>
+  <si>
+    <t>₹16,999</t>
+  </si>
+  <si>
+    <t>(Carbon Black)</t>
+  </si>
+  <si>
+    <t>(Ash Grey)</t>
+  </si>
+  <si>
+    <t>Dorothy Accent Chair</t>
+  </si>
+  <si>
+    <t>(Grey)</t>
+  </si>
+  <si>
+    <t>₹11,099</t>
+  </si>
+  <si>
+    <t>Dorsey Study Chair</t>
+  </si>
+  <si>
+    <t>₹5,499</t>
+  </si>
+  <si>
+    <t>DSW Side Chair Replica</t>
+  </si>
+  <si>
+    <t>(Patchwork)</t>
+  </si>
+  <si>
+    <t>₹9,799</t>
+  </si>
+  <si>
+    <t>Arabia Study Table</t>
+  </si>
+  <si>
+    <t>(Teak Finish)</t>
+  </si>
+  <si>
+    <t>Poulain Accent Chair</t>
+  </si>
+  <si>
+    <t>(Two Tone, Fabric Seat)</t>
+  </si>
+  <si>
+    <t>(Red, Fabric Seat)</t>
+  </si>
+  <si>
+    <t>Hawley Study Chair</t>
+  </si>
+  <si>
+    <t>₹6,999</t>
+  </si>
+  <si>
+    <t>Galen Study Chair</t>
+  </si>
+  <si>
+    <t>(Black, Nylon Chair Base)</t>
   </si>
   <si>
     <t>Mika Study Chair</t>
   </si>
   <si>
+    <t>(White)</t>
+  </si>
+  <si>
+    <t>₹13,599</t>
+  </si>
+  <si>
     <t>(Scarlet Red)</t>
   </si>
   <si>
-    <t>₹13,599 ₹11,559</t>
-  </si>
-  <si>
-    <t>Aurelio Study Chair</t>
-  </si>
-  <si>
-    <t>(Teak Finish, Sandstorm)</t>
-  </si>
-  <si>
-    <t>₹8,599</t>
-  </si>
-  <si>
-    <t>Charles Study Chair - 2 Axis Adjustable</t>
-  </si>
-  <si>
-    <t>(Black)</t>
-  </si>
-  <si>
-    <t>₹12,099 ₹8,469</t>
-  </si>
-  <si>
-    <t>Werner High Back Study Chair</t>
-  </si>
-  <si>
-    <t>₹11,499 ₹8,624</t>
-  </si>
-  <si>
-    <t>Dewey High Back Study Chair</t>
-  </si>
-  <si>
-    <t>₹16,999 ₹13,599</t>
-  </si>
-  <si>
-    <t>Venturi Study Chair-3 Axis Adjustable</t>
-  </si>
-  <si>
-    <t>(Aqua)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹9,349</t>
-  </si>
-  <si>
-    <t>(Carbon Black)</t>
-  </si>
-  <si>
-    <t>(Ash Grey)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹8,799</t>
-  </si>
-  <si>
-    <t>Dorothy Accent Chair</t>
-  </si>
-  <si>
-    <t>(Grey)</t>
-  </si>
-  <si>
-    <t>₹11,099</t>
-  </si>
-  <si>
-    <t>(White)</t>
-  </si>
-  <si>
-    <t>₹13,599 ₹10,879</t>
-  </si>
-  <si>
-    <t>DSW Side Chair Replica</t>
-  </si>
-  <si>
-    <t>(Patchwork)</t>
-  </si>
-  <si>
-    <t>₹9,799</t>
-  </si>
-  <si>
-    <t>Arabia Study Table</t>
-  </si>
-  <si>
-    <t>(Teak Finish)</t>
-  </si>
-  <si>
-    <t>₹10,999</t>
-  </si>
-  <si>
-    <t>Poulain Accent Chair</t>
-  </si>
-  <si>
-    <t>(Red, Fabric Seat)</t>
-  </si>
-  <si>
-    <t>(Two Tone, Fabric Seat)</t>
-  </si>
-  <si>
-    <t>Dorsey Study Chair</t>
-  </si>
-  <si>
-    <t>₹5,499 ₹4,124</t>
-  </si>
-  <si>
-    <t>Galen Study Chair</t>
-  </si>
-  <si>
-    <t>(Black, Nylon Chair Base)</t>
-  </si>
-  <si>
-    <t>₹10,999 ₹7,699</t>
+    <t>Cohen Study Chair</t>
+  </si>
+  <si>
+    <t>₹8,499</t>
   </si>
   <si>
     <t>Barry Study Chair</t>
@@ -152,7 +152,7 @@
     <t>(Black Leatherette)</t>
   </si>
   <si>
-    <t>₹6,499 ₹4,874</t>
+    <t>₹6,499</t>
   </si>
   <si>
     <t>Jean Study Chair</t>
@@ -161,25 +161,7 @@
     <t>(Brown Leatherette)</t>
   </si>
   <si>
-    <t>₹10,699 ₹7,489</t>
-  </si>
-  <si>
-    <t>Cohen Study Chair</t>
-  </si>
-  <si>
-    <t>₹8,499 ₹6,374</t>
-  </si>
-  <si>
-    <t>Hawley Study Chair</t>
-  </si>
-  <si>
-    <t>₹6,999 ₹5,949</t>
-  </si>
-  <si>
-    <t>(Mahogany Finish, Olive)</t>
-  </si>
-  <si>
-    <t>₹8,599 ₹7,309</t>
+    <t>₹10,699</t>
   </si>
 </sst>
 </file>
@@ -254,233 +236,233 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
